--- a/controllers/28-6-2022.xlsx
+++ b/controllers/28-6-2022.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,205 +428,223 @@
         <v>batch</v>
       </c>
       <c r="I1" t="str">
+        <v>barrier</v>
+      </c>
+      <c r="J1" t="str">
         <v>__v</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>updatedAt</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>62ba60a4331d7521cfb4d311</v>
+        <v>62bab2a750992ec78d4768e6</v>
       </c>
       <c r="B2" t="str">
-        <v>Harriott Crayden</v>
+        <v>Yancy Workman</v>
       </c>
       <c r="C2" t="str">
-        <v>hcrayden0@linkedin.com</v>
+        <v>yworkman0@sciencedaily.com</v>
       </c>
       <c r="D2" t="str">
-        <v>748-687-4819</v>
+        <v>775-937-1550</v>
       </c>
       <c r="E2" t="str">
-        <v>Muller and Sons</v>
+        <v>Cassin LLC</v>
       </c>
       <c r="F2" t="str">
         <v>closing</v>
       </c>
       <c r="G2" t="str">
-        <v>subsididm</v>
+        <v>subsidism</v>
       </c>
       <c r="H2" t="str">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
-        <v>2022-06-28T02:00:04.041Z</v>
+        <v>6</v>
+      </c>
+      <c r="I2" t="str">
+        <v>concept</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>2022-06-28T02:00:04.041Z</v>
+        <v>2022-06-28T07:49:59.406Z</v>
+      </c>
+      <c r="L2" t="str">
+        <v>2022-06-28T07:49:59.406Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>62ba60a4331d7521cfb4d312</v>
+        <v>62bab2a750992ec78d4768e7</v>
       </c>
       <c r="B3" t="str">
-        <v>Durand Matisoff</v>
+        <v>Armando Dewdney</v>
       </c>
       <c r="C3" t="str">
-        <v>dmatisoff1@sogou.com</v>
+        <v>adewdney1@huffingtonpost.com</v>
       </c>
       <c r="D3" t="str">
-        <v>581-618-3246</v>
+        <v>415-278-4382</v>
       </c>
       <c r="E3" t="str">
-        <v>Reinger and Sons</v>
+        <v>Bradtke Group</v>
       </c>
       <c r="F3" t="str">
-        <v>schedule</v>
+        <v>program</v>
       </c>
       <c r="G3" t="str">
-        <v>subsidism</v>
+        <v>sdm</v>
       </c>
       <c r="H3" t="str">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>5</v>
+      </c>
+      <c r="I3" t="str">
+        <v>4th generation</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>2022-06-28T07:49:59.406Z</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2022-06-28T07:49:59.406Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>62ba60a4331d7521cfb4d313</v>
+        <v>62bab2a750992ec78d4768e8</v>
       </c>
       <c r="B4" t="str">
-        <v>Avrom Lies</v>
+        <v>Griswold Tomkies</v>
       </c>
       <c r="C4" t="str">
-        <v>alies2@businesswire.com</v>
+        <v>gtomkies2@hugedomains.com</v>
       </c>
       <c r="D4" t="str">
-        <v>173-687-6571</v>
+        <v>377-809-2961</v>
       </c>
       <c r="E4" t="str">
-        <v>Hudson-Kemmer</v>
+        <v>Kreiger-Leuschke</v>
       </c>
       <c r="F4" t="str">
-        <v>closing</v>
+        <v>refollow up</v>
       </c>
       <c r="G4" t="str">
-        <v>subsididm</v>
+        <v>ssm</v>
       </c>
       <c r="H4" t="str">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>6</v>
+      </c>
+      <c r="I4" t="str">
+        <v>approach</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>2022-06-28T07:49:59.406Z</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2022-06-28T07:49:59.406Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>62ba60a4331d7521cfb4d314</v>
+        <v>62bab2a750992ec78d4768e9</v>
       </c>
       <c r="B5" t="str">
-        <v>Fleur Nelthrop</v>
+        <v>Tim Boylin</v>
       </c>
       <c r="C5" t="str">
-        <v>fnelthrop3@gov.uk</v>
+        <v>tboylin3@nature.com</v>
       </c>
       <c r="D5" t="str">
-        <v>636-904-3935</v>
+        <v>614-354-6621</v>
       </c>
       <c r="E5" t="str">
-        <v>Breitenberg Group</v>
+        <v>Bednar, Strosin and D'Amore</v>
       </c>
       <c r="F5" t="str">
-        <v>program</v>
+        <v>closing</v>
       </c>
       <c r="G5" t="str">
         <v>subsidism</v>
       </c>
       <c r="H5" t="str">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>2</v>
+      </c>
+      <c r="I5" t="str">
+        <v>migration</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>2022-06-28T07:49:59.406Z</v>
+      </c>
+      <c r="L5" t="str">
+        <v>2022-06-28T07:49:59.406Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>62ba60a4331d7521cfb4d315</v>
+        <v>62bab2a750992ec78d4768ea</v>
       </c>
       <c r="B6" t="str">
-        <v>Jacynth Verma</v>
+        <v>Iver Jotham</v>
       </c>
       <c r="C6" t="str">
-        <v>jverma4@google.ru</v>
+        <v>ijotham4@addthis.com</v>
       </c>
       <c r="D6" t="str">
-        <v>893-236-1645</v>
+        <v>878-833-9154</v>
       </c>
       <c r="E6" t="str">
-        <v>Tremblay, Jast and Windler</v>
+        <v>Hegmann-Sporer</v>
       </c>
       <c r="F6" t="str">
-        <v>schedule</v>
+        <v>refollow up</v>
       </c>
       <c r="G6" t="str">
-        <v>sdm</v>
+        <v>subsidism</v>
       </c>
       <c r="H6" t="str">
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>2</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Ameliorated</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>62ba60a4331d7521cfb4d316</v>
+        <v>62bab2a750992ec78d4768eb</v>
       </c>
       <c r="B7" t="str">
-        <v>Coriss Linley</v>
+        <v>Julia Gheorghescu</v>
       </c>
       <c r="C7" t="str">
-        <v>clinley5@simplemachines.org</v>
+        <v>jgheorghescu5@infoseek.co.jp</v>
       </c>
       <c r="D7" t="str">
-        <v>682-389-3180</v>
+        <v>850-930-2910</v>
       </c>
       <c r="E7" t="str">
-        <v>Marvin, Haley and Quigley</v>
+        <v>O'Conner LLC</v>
       </c>
       <c r="F7" t="str">
         <v>rapot</v>
@@ -635,161 +653,3596 @@
         <v>subsidism</v>
       </c>
       <c r="H7" t="str">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>3</v>
+      </c>
+      <c r="I7" t="str">
+        <v>challenge</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>62ba60a4331d7521cfb4d317</v>
+        <v>62bab2a750992ec78d4768ec</v>
       </c>
       <c r="B8" t="str">
-        <v>Shelagh Greir</v>
+        <v>Sayres Heugh</v>
       </c>
       <c r="C8" t="str">
-        <v>sgreir6@zdnet.com</v>
+        <v>sheugh6@goodreads.com</v>
       </c>
       <c r="D8" t="str">
-        <v>981-514-6012</v>
+        <v>888-326-5068</v>
       </c>
       <c r="E8" t="str">
-        <v>Harris, Effertz and Little</v>
+        <v>Hamill LLC</v>
       </c>
       <c r="F8" t="str">
         <v>schedule</v>
       </c>
       <c r="G8" t="str">
-        <v>sdm</v>
+        <v>subsididm</v>
       </c>
       <c r="H8" t="str">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>10</v>
+      </c>
+      <c r="I8" t="str">
+        <v>encompassing</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+      <c r="L8" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>62ba60a4331d7521cfb4d318</v>
+        <v>62bab2a750992ec78d4768ed</v>
       </c>
       <c r="B9" t="str">
-        <v>Lisbeth Blouet</v>
+        <v>Trenton Corryer</v>
       </c>
       <c r="C9" t="str">
-        <v>lblouet7@nydailynews.com</v>
+        <v>tcorryer7@japanpost.jp</v>
       </c>
       <c r="D9" t="str">
-        <v>500-770-3457</v>
+        <v>669-106-5846</v>
       </c>
       <c r="E9" t="str">
-        <v>Mueller-Walsh</v>
+        <v>Hegmann Group</v>
       </c>
       <c r="F9" t="str">
         <v>closing</v>
       </c>
       <c r="G9" t="str">
-        <v>subsidism</v>
+        <v>sdm</v>
       </c>
       <c r="H9" t="str">
         <v>8</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+      <c r="I9" t="str">
+        <v>asynchronous</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>62ba60a4331d7521cfb4d319</v>
+        <v>62bab2a750992ec78d4768ee</v>
       </c>
       <c r="B10" t="str">
-        <v>Lissy Prevett</v>
+        <v>Kaela Martine</v>
       </c>
       <c r="C10" t="str">
-        <v>lprevett8@photobucket.com</v>
+        <v>kmartine8@dell.com</v>
       </c>
       <c r="D10" t="str">
-        <v>857-279-1639</v>
+        <v>901-979-5465</v>
       </c>
       <c r="E10" t="str">
-        <v>Blanda, Prohaska and Treutel</v>
+        <v>Bins, Russel and Heidenreich</v>
       </c>
       <c r="F10" t="str">
-        <v>rapot</v>
+        <v>program</v>
       </c>
       <c r="G10" t="str">
-        <v>ssm</v>
+        <v>subsidism</v>
       </c>
       <c r="H10" t="str">
-        <v>15</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Persevering</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" t="str">
-        <v>2022-06-28T02:00:04.042Z</v>
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>62ba60a4331d7521cfb4d31a</v>
+        <v>62bab2a750992ec78d4768ef</v>
       </c>
       <c r="B11" t="str">
-        <v>Donielle Gillyatt</v>
+        <v>Valera Pearde</v>
       </c>
       <c r="C11" t="str">
-        <v>dgillyatt9@washington.edu</v>
+        <v>vpearde9@spiegel.de</v>
       </c>
       <c r="D11" t="str">
-        <v>387-556-9967</v>
+        <v>410-756-4159</v>
       </c>
       <c r="E11" t="str">
-        <v>Olson-Bernhard</v>
+        <v>Larkin, Spencer and Schamberger</v>
       </c>
       <c r="F11" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G11" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H11" t="str">
+        <v>7</v>
+      </c>
+      <c r="I11" t="str">
+        <v>secured line</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>62bab2a750992ec78d4768f0</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Jareb Rawood</v>
+      </c>
+      <c r="C12" t="str">
+        <v>jrawooda@yellowpages.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>117-850-2824</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Metz, Lakin and Armstrong</v>
+      </c>
+      <c r="F12" t="str">
+        <v>program</v>
+      </c>
+      <c r="G12" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H12" t="str">
+        <v>3</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Grass-roots</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+      <c r="L12" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>62bab2a750992ec78d4768f1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Lothaire McKennan</v>
+      </c>
+      <c r="C13" t="str">
+        <v>lmckennanb@mail.ru</v>
+      </c>
+      <c r="D13" t="str">
+        <v>214-513-2618</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Windler-Boyer</v>
+      </c>
+      <c r="F13" t="str">
+        <v>program</v>
+      </c>
+      <c r="G13" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H13" t="str">
+        <v>9</v>
+      </c>
+      <c r="I13" t="str">
+        <v>middleware</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+      <c r="L13" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>62bab2a750992ec78d4768f2</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Haywood Packham</v>
+      </c>
+      <c r="C14" t="str">
+        <v>hpackhamc@ocn.ne.jp</v>
+      </c>
+      <c r="D14" t="str">
+        <v>813-437-6823</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Murazik, O'Hara and Abshire</v>
+      </c>
+      <c r="F14" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G14" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H14" t="str">
+        <v>2</v>
+      </c>
+      <c r="I14" t="str">
+        <v>capacity</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+      <c r="L14" t="str">
+        <v>2022-06-28T07:49:59.407Z</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>62bab2a750992ec78d4768f3</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Silvester Atwel</v>
+      </c>
+      <c r="C15" t="str">
+        <v>satweld@flavors.me</v>
+      </c>
+      <c r="D15" t="str">
+        <v>443-161-2876</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Towne, Thompson and Prosacco</v>
+      </c>
+      <c r="F15" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G15" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H15" t="str">
+        <v>4</v>
+      </c>
+      <c r="I15" t="str">
+        <v>local area network</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+      <c r="L15" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>62bab2a750992ec78d4768f4</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Felix Tancock</v>
+      </c>
+      <c r="C16" t="str">
+        <v>ftancocke@netvibes.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>835-951-0540</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Schmitt, Spencer and Littel</v>
+      </c>
+      <c r="F16" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G16" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H16" t="str">
+        <v>7</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Re-contextualized</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+      <c r="L16" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>62bab2a750992ec78d4768f5</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Lacie Pairpoint</v>
+      </c>
+      <c r="C17" t="str">
+        <v>lpairpointf@skype.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>761-569-2740</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Hilpert, Herzog and Koss</v>
+      </c>
+      <c r="F17" t="str">
+        <v>program</v>
+      </c>
+      <c r="G17" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H17" t="str">
+        <v>2</v>
+      </c>
+      <c r="I17" t="str">
+        <v>motivating</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+      <c r="L17" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>62bab2a750992ec78d4768f6</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Letitia Yokelman</v>
+      </c>
+      <c r="C18" t="str">
+        <v>lyokelmang@usda.gov</v>
+      </c>
+      <c r="D18" t="str">
+        <v>686-691-2485</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Haley-Connelly</v>
+      </c>
+      <c r="F18" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G18" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H18" t="str">
+        <v>8</v>
+      </c>
+      <c r="I18" t="str">
+        <v>project</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+      <c r="L18" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>62bab2a750992ec78d4768f7</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Buddy Gloucester</v>
+      </c>
+      <c r="C19" t="str">
+        <v>bgloucesterh@flickr.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>639-498-3877</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Konopelski-Morissette</v>
+      </c>
+      <c r="F19" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G19" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H19" t="str">
+        <v>7</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Total</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+      <c r="L19" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>62bab2a750992ec78d4768f8</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Nady Twiddy</v>
+      </c>
+      <c r="C20" t="str">
+        <v>ntwiddyi@state.gov</v>
+      </c>
+      <c r="D20" t="str">
+        <v>515-887-3312</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Turcotte Group</v>
+      </c>
+      <c r="F20" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G20" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H20" t="str">
+        <v>4</v>
+      </c>
+      <c r="I20" t="str">
+        <v>uniform</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+      <c r="L20" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>62bab2a750992ec78d4768f9</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Kessia Kewley</v>
+      </c>
+      <c r="C21" t="str">
+        <v>kkewleyj@php.net</v>
+      </c>
+      <c r="D21" t="str">
+        <v>890-513-9909</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Raynor LLC</v>
+      </c>
+      <c r="F21" t="str">
+        <v>program</v>
+      </c>
+      <c r="G21" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H21" t="str">
+        <v>2</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Multi-lateral</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+      <c r="L21" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>62bab2a750992ec78d4768fa</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Bradney Norcliff</v>
+      </c>
+      <c r="C22" t="str">
+        <v>bnorcliffk@google.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>419-827-4923</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Green LLC</v>
+      </c>
+      <c r="F22" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G22" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H22" t="str">
+        <v>3</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Secured</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+      <c r="L22" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>62bab2a750992ec78d4768fb</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Stormie Woolager</v>
+      </c>
+      <c r="C23" t="str">
+        <v>swoolagerl@wiley.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>396-650-0967</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Macejkovic LLC</v>
+      </c>
+      <c r="F23" t="str">
         <v>closing</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G23" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H23" t="str">
+        <v>6</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Inverse</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+      <c r="L23" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>62bab2a750992ec78d4768fc</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Ody Perigoe</v>
+      </c>
+      <c r="C24" t="str">
+        <v>operigoem@simplemachines.org</v>
+      </c>
+      <c r="D24" t="str">
+        <v>675-411-2830</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Friesen, Beier and Mitchell</v>
+      </c>
+      <c r="F24" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G24" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H24" t="str">
+        <v>9</v>
+      </c>
+      <c r="I24" t="str">
+        <v>scalable</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+      <c r="L24" t="str">
+        <v>2022-06-28T07:49:59.408Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>62bab2a750992ec78d4768fd</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Desdemona Ciubutaro</v>
+      </c>
+      <c r="C25" t="str">
+        <v>dciubutaron@php.net</v>
+      </c>
+      <c r="D25" t="str">
+        <v>274-688-2786</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Bergnaum, Ziemann and Upton</v>
+      </c>
+      <c r="F25" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G25" t="str">
         <v>subsididm</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H25" t="str">
+        <v>8</v>
+      </c>
+      <c r="I25" t="str">
+        <v>productivity</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+      <c r="L25" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>62bab2a750992ec78d4768fe</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Sim McQuilkin</v>
+      </c>
+      <c r="C26" t="str">
+        <v>smcquilkino@yahoo.co.jp</v>
+      </c>
+      <c r="D26" t="str">
+        <v>655-363-0894</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Walsh, Bruen and Runolfsson</v>
+      </c>
+      <c r="F26" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G26" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H26" t="str">
+        <v>10</v>
+      </c>
+      <c r="I26" t="str">
+        <v>mobile</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+      <c r="L26" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>62bab2a750992ec78d4768ff</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Dick Ferryman</v>
+      </c>
+      <c r="C27" t="str">
+        <v>dferrymanp@printfriendly.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>649-458-4398</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Witting and Sons</v>
+      </c>
+      <c r="F27" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G27" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H27" t="str">
+        <v>4</v>
+      </c>
+      <c r="I27" t="str">
+        <v>global</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+      <c r="L27" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>62bab2a750992ec78d476900</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Quincey Innman</v>
+      </c>
+      <c r="C28" t="str">
+        <v>qinnmanq@time.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>292-532-4555</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Streich, Hegmann and Bergstrom</v>
+      </c>
+      <c r="F28" t="str">
+        <v>program</v>
+      </c>
+      <c r="G28" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H28" t="str">
+        <v>8</v>
+      </c>
+      <c r="I28" t="str">
+        <v>reciprocal</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+      <c r="L28" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>62bab2a750992ec78d476901</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Elnar Shervil</v>
+      </c>
+      <c r="C29" t="str">
+        <v>eshervilr@t-online.de</v>
+      </c>
+      <c r="D29" t="str">
+        <v>882-514-5649</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Effertz-D'Amore</v>
+      </c>
+      <c r="F29" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G29" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H29" t="str">
+        <v>8</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Profound</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+      <c r="L29" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>62bab2a750992ec78d476902</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Candis Goathrop</v>
+      </c>
+      <c r="C30" t="str">
+        <v>cgoathrops@gmpg.org</v>
+      </c>
+      <c r="D30" t="str">
+        <v>166-250-8293</v>
+      </c>
+      <c r="E30" t="str">
+        <v>MacGyver and Sons</v>
+      </c>
+      <c r="F30" t="str">
+        <v>program</v>
+      </c>
+      <c r="G30" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H30" t="str">
         <v>6</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
-        <v>2022-06-28T02:00:04.043Z</v>
-      </c>
-      <c r="K11" t="str">
-        <v>2022-06-28T02:00:04.043Z</v>
+      <c r="I30" t="str">
+        <v>asymmetric</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+      <c r="L30" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>62bab2a750992ec78d476903</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Man Colloff</v>
+      </c>
+      <c r="C31" t="str">
+        <v>mcollofft@nih.gov</v>
+      </c>
+      <c r="D31" t="str">
+        <v>783-429-7332</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Kulas, Kuphal and O'Connell</v>
+      </c>
+      <c r="F31" t="str">
+        <v>program</v>
+      </c>
+      <c r="G31" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H31" t="str">
+        <v>10</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Re-engineered</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+      <c r="L31" t="str">
+        <v>2022-06-28T07:49:59.409Z</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>62bab2a750992ec78d476904</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Willey Glitherow</v>
+      </c>
+      <c r="C32" t="str">
+        <v>wglitherowu@hp.com</v>
+      </c>
+      <c r="D32" t="str">
+        <v>486-837-7857</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Moen, Cormier and O'Hara</v>
+      </c>
+      <c r="F32" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G32" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H32" t="str">
+        <v>3</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Face to face</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+      <c r="L32" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>62bab2a750992ec78d476905</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Lian Ghidoli</v>
+      </c>
+      <c r="C33" t="str">
+        <v>lghidoliv@issuu.com</v>
+      </c>
+      <c r="D33" t="str">
+        <v>855-967-4237</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Kerluke-Ziemann</v>
+      </c>
+      <c r="F33" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G33" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H33" t="str">
+        <v>2</v>
+      </c>
+      <c r="I33" t="str">
+        <v>value-added</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+      <c r="L33" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>62bab2a750992ec78d476906</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Ivor O'Giany</v>
+      </c>
+      <c r="C34" t="str">
+        <v>iogianyw@bigcartel.com</v>
+      </c>
+      <c r="D34" t="str">
+        <v>349-246-7404</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Kub Group</v>
+      </c>
+      <c r="F34" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G34" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H34" t="str">
+        <v>3</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Networked</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+      <c r="L34" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>62bab2a750992ec78d476907</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Bryon Jezard</v>
+      </c>
+      <c r="C35" t="str">
+        <v>bjezardx@yahoo.co.jp</v>
+      </c>
+      <c r="D35" t="str">
+        <v>397-365-3090</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Cassin, Reilly and Hessel</v>
+      </c>
+      <c r="F35" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G35" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H35" t="str">
+        <v>4</v>
+      </c>
+      <c r="I35" t="str">
+        <v>static</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+      <c r="L35" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>62bab2a750992ec78d476908</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Ivonne Bodimeade</v>
+      </c>
+      <c r="C36" t="str">
+        <v>ibodimeadey@tamu.edu</v>
+      </c>
+      <c r="D36" t="str">
+        <v>182-383-5715</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Pfannerstill, Kovacek and Quitzon</v>
+      </c>
+      <c r="F36" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G36" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H36" t="str">
+        <v>7</v>
+      </c>
+      <c r="I36" t="str">
+        <v>standardization</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+      <c r="L36" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>62bab2a750992ec78d476909</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Jeanelle Bouch</v>
+      </c>
+      <c r="C37" t="str">
+        <v>jbouchz@altervista.org</v>
+      </c>
+      <c r="D37" t="str">
+        <v>528-130-3896</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Beatty, Denesik and Yost</v>
+      </c>
+      <c r="F37" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G37" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H37" t="str">
+        <v>3</v>
+      </c>
+      <c r="I37" t="str">
+        <v>capability</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+      <c r="L37" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>62bab2a750992ec78d47690a</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Vivyan Sarchwell</v>
+      </c>
+      <c r="C38" t="str">
+        <v>vsarchwell10@tripadvisor.com</v>
+      </c>
+      <c r="D38" t="str">
+        <v>246-596-0600</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Sipes, Vandervort and Ernser</v>
+      </c>
+      <c r="F38" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G38" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H38" t="str">
+        <v>10</v>
+      </c>
+      <c r="I38" t="str">
+        <v>explicit</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+      <c r="L38" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>62bab2a750992ec78d47690b</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Garrott Olech</v>
+      </c>
+      <c r="C39" t="str">
+        <v>golech11@bloomberg.com</v>
+      </c>
+      <c r="D39" t="str">
+        <v>896-914-0221</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Kshlerin-Gislason</v>
+      </c>
+      <c r="F39" t="str">
+        <v>program</v>
+      </c>
+      <c r="G39" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H39" t="str">
+        <v>1</v>
+      </c>
+      <c r="I39" t="str">
+        <v>tertiary</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+      <c r="L39" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>62bab2a750992ec78d47690c</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Fin Delahunty</v>
+      </c>
+      <c r="C40" t="str">
+        <v>fdelahunty12@xinhuanet.com</v>
+      </c>
+      <c r="D40" t="str">
+        <v>552-929-9803</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Ankunding, Kohler and Marks</v>
+      </c>
+      <c r="F40" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G40" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H40" t="str">
+        <v>5</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Advanced</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+      <c r="L40" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>62bab2a750992ec78d47690d</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Sayers Pesselt</v>
+      </c>
+      <c r="C41" t="str">
+        <v>spesselt13@amazon.co.uk</v>
+      </c>
+      <c r="D41" t="str">
+        <v>224-579-2814</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Trantow, Bins and O'Connell</v>
+      </c>
+      <c r="F41" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G41" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H41" t="str">
+        <v>4</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Implemented</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+      <c r="L41" t="str">
+        <v>2022-06-28T07:49:59.410Z</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>62bab2a750992ec78d47690e</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Alvera McIlmurray</v>
+      </c>
+      <c r="C42" t="str">
+        <v>amcilmurray14@businessweek.com</v>
+      </c>
+      <c r="D42" t="str">
+        <v>394-485-1883</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Russel, Durgan and Bayer</v>
+      </c>
+      <c r="F42" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G42" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H42" t="str">
+        <v>8</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Adaptive</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+      <c r="L42" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>62bab2a750992ec78d47690f</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Pincus Mildner</v>
+      </c>
+      <c r="C43" t="str">
+        <v>pmildner15@theatlantic.com</v>
+      </c>
+      <c r="D43" t="str">
+        <v>122-591-1264</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Casper, Wunsch and Goldner</v>
+      </c>
+      <c r="F43" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G43" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H43" t="str">
+        <v>9</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Automated</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+      <c r="L43" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>62bab2a750992ec78d476910</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Latia Tilley</v>
+      </c>
+      <c r="C44" t="str">
+        <v>ltilley16@wp.com</v>
+      </c>
+      <c r="D44" t="str">
+        <v>185-991-1472</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Torp Inc</v>
+      </c>
+      <c r="F44" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G44" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H44" t="str">
+        <v>9</v>
+      </c>
+      <c r="I44" t="str">
+        <v>value-added</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+      <c r="L44" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>62bab2a750992ec78d476911</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Edithe Dalli</v>
+      </c>
+      <c r="C45" t="str">
+        <v>edalli17@boston.com</v>
+      </c>
+      <c r="D45" t="str">
+        <v>979-620-0422</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Langworth, Bergnaum and Breitenberg</v>
+      </c>
+      <c r="F45" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G45" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H45" t="str">
+        <v>3</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Down-sized</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+      <c r="L45" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>62bab2a750992ec78d476912</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Rab Vennings</v>
+      </c>
+      <c r="C46" t="str">
+        <v>rvennings18@shinystat.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>273-630-7833</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Farrell LLC</v>
+      </c>
+      <c r="F46" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G46" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H46" t="str">
+        <v>7</v>
+      </c>
+      <c r="I46" t="str">
+        <v>core</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+      <c r="L46" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>62bab2a750992ec78d476913</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Pollyanna Shoosmith</v>
+      </c>
+      <c r="C47" t="str">
+        <v>pshoosmith19@yolasite.com</v>
+      </c>
+      <c r="D47" t="str">
+        <v>174-386-5991</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Steuber-Brekke</v>
+      </c>
+      <c r="F47" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G47" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H47" t="str">
+        <v>7</v>
+      </c>
+      <c r="I47" t="str">
+        <v>transitional</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+      <c r="L47" t="str">
+        <v>2022-06-28T07:49:59.411Z</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>62bab2a750992ec78d476914</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Dannie Woolliams</v>
+      </c>
+      <c r="C48" t="str">
+        <v>dwoolliams1a@unblog.fr</v>
+      </c>
+      <c r="D48" t="str">
+        <v>469-223-7183</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Wisozk Group</v>
+      </c>
+      <c r="F48" t="str">
+        <v>program</v>
+      </c>
+      <c r="G48" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H48" t="str">
+        <v>1</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Operative</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="str">
+        <v>2022-06-28T07:49:59.412Z</v>
+      </c>
+      <c r="L48" t="str">
+        <v>2022-06-28T07:49:59.412Z</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>62bab2a750992ec78d476915</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Ardyth Curlis</v>
+      </c>
+      <c r="C49" t="str">
+        <v>acurlis1b@zimbio.com</v>
+      </c>
+      <c r="D49" t="str">
+        <v>786-710-8025</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Ortiz, Toy and Crooks</v>
+      </c>
+      <c r="F49" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G49" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H49" t="str">
+        <v>6</v>
+      </c>
+      <c r="I49" t="str">
+        <v>initiative</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="str">
+        <v>2022-06-28T07:49:59.413Z</v>
+      </c>
+      <c r="L49" t="str">
+        <v>2022-06-28T07:49:59.413Z</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>62bab2a750992ec78d476916</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Craggy Rosle</v>
+      </c>
+      <c r="C50" t="str">
+        <v>crosle1c@europa.eu</v>
+      </c>
+      <c r="D50" t="str">
+        <v>683-866-1530</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Reichel, Bernhard and Marvin</v>
+      </c>
+      <c r="F50" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G50" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H50" t="str">
+        <v>3</v>
+      </c>
+      <c r="I50" t="str">
+        <v>firmware</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="str">
+        <v>2022-06-28T07:49:59.414Z</v>
+      </c>
+      <c r="L50" t="str">
+        <v>2022-06-28T07:49:59.414Z</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>62bab2a750992ec78d476917</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Miran Duiged</v>
+      </c>
+      <c r="C51" t="str">
+        <v>mduiged1d@samsung.com</v>
+      </c>
+      <c r="D51" t="str">
+        <v>283-291-4985</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Okuneva-Koch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G51" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H51" t="str">
+        <v>2</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Down-sized</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="str">
+        <v>2022-06-28T07:49:59.414Z</v>
+      </c>
+      <c r="L51" t="str">
+        <v>2022-06-28T07:49:59.414Z</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>62bab2a750992ec78d476918</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Isabel Meininking</v>
+      </c>
+      <c r="C52" t="str">
+        <v>imeininking1e@instagram.com</v>
+      </c>
+      <c r="D52" t="str">
+        <v>998-673-8524</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Labadie, Brekke and Hauck</v>
+      </c>
+      <c r="F52" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G52" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H52" t="str">
+        <v>2</v>
+      </c>
+      <c r="I52" t="str">
+        <v>matrices</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="str">
+        <v>2022-06-28T07:49:59.414Z</v>
+      </c>
+      <c r="L52" t="str">
+        <v>2022-06-28T07:49:59.414Z</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>62bab2a750992ec78d476919</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Katey Escofier</v>
+      </c>
+      <c r="C53" t="str">
+        <v>kescofier1f@bloglovin.com</v>
+      </c>
+      <c r="D53" t="str">
+        <v>804-595-6954</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Fay Inc</v>
+      </c>
+      <c r="F53" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G53" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H53" t="str">
+        <v>1</v>
+      </c>
+      <c r="I53" t="str">
+        <v>encoding</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+      <c r="L53" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>62bab2a750992ec78d47691a</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Saundra Graber</v>
+      </c>
+      <c r="C54" t="str">
+        <v>sgraber1g@hibu.com</v>
+      </c>
+      <c r="D54" t="str">
+        <v>495-787-1090</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Anderson, Runolfsdottir and Bruen</v>
+      </c>
+      <c r="F54" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G54" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H54" t="str">
+        <v>2</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Innovative</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+      <c r="L54" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>62bab2a750992ec78d47691b</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Weber Read</v>
+      </c>
+      <c r="C55" t="str">
+        <v>wread1h@tamu.edu</v>
+      </c>
+      <c r="D55" t="str">
+        <v>325-897-4783</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Schmeler Inc</v>
+      </c>
+      <c r="F55" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G55" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H55" t="str">
+        <v>3</v>
+      </c>
+      <c r="I55" t="str">
+        <v>synergy</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+      <c r="L55" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>62bab2a750992ec78d47691c</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Tadeas Glendining</v>
+      </c>
+      <c r="C56" t="str">
+        <v>tglendining1i@va.gov</v>
+      </c>
+      <c r="D56" t="str">
+        <v>135-300-9451</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Stanton and Sons</v>
+      </c>
+      <c r="F56" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G56" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H56" t="str">
+        <v>5</v>
+      </c>
+      <c r="I56" t="str">
+        <v>optimal</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+      <c r="L56" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>62bab2a750992ec78d47691d</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Ninnetta MacMarcuis</v>
+      </c>
+      <c r="C57" t="str">
+        <v>nmacmarcuis1j@tuttocitta.it</v>
+      </c>
+      <c r="D57" t="str">
+        <v>834-523-0926</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Rogahn-Bayer</v>
+      </c>
+      <c r="F57" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G57" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H57" t="str">
+        <v>8</v>
+      </c>
+      <c r="I57" t="str">
+        <v>eco-centric</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+      <c r="L57" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>62bab2a750992ec78d47691e</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Celesta Bretland</v>
+      </c>
+      <c r="C58" t="str">
+        <v>cbretland1k@theglobeandmail.com</v>
+      </c>
+      <c r="D58" t="str">
+        <v>955-824-2504</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Stokes-Vandervort</v>
+      </c>
+      <c r="F58" t="str">
+        <v>program</v>
+      </c>
+      <c r="G58" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H58" t="str">
+        <v>8</v>
+      </c>
+      <c r="I58" t="str">
+        <v>intermediate</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+      <c r="L58" t="str">
+        <v>2022-06-28T07:49:59.415Z</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>62bab2a750992ec78d47691f</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Heddie Hum</v>
+      </c>
+      <c r="C59" t="str">
+        <v>hhum1l@oakley.com</v>
+      </c>
+      <c r="D59" t="str">
+        <v>836-112-0997</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Corkery-Block</v>
+      </c>
+      <c r="F59" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G59" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H59" t="str">
+        <v>9</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Synchronised</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L59" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>62bab2a750992ec78d476920</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Helsa Trass</v>
+      </c>
+      <c r="C60" t="str">
+        <v>htrass1m@dot.gov</v>
+      </c>
+      <c r="D60" t="str">
+        <v>504-200-7809</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Medhurst-Heidenreich</v>
+      </c>
+      <c r="F60" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G60" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H60" t="str">
+        <v>7</v>
+      </c>
+      <c r="I60" t="str">
+        <v>algorithm</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L60" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>62bab2a750992ec78d476921</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Salomi McConaghy</v>
+      </c>
+      <c r="C61" t="str">
+        <v>smcconaghy1n@bloglovin.com</v>
+      </c>
+      <c r="D61" t="str">
+        <v>461-216-7921</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Cormier-Stehr</v>
+      </c>
+      <c r="F61" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G61" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H61" t="str">
+        <v>8</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Optional</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L61" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>62bab2a750992ec78d476922</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Duky Helstrip</v>
+      </c>
+      <c r="C62" t="str">
+        <v>dhelstrip1o@msn.com</v>
+      </c>
+      <c r="D62" t="str">
+        <v>704-145-0669</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Leuschke-Labadie</v>
+      </c>
+      <c r="F62" t="str">
+        <v>program</v>
+      </c>
+      <c r="G62" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H62" t="str">
+        <v>8</v>
+      </c>
+      <c r="I62" t="str">
+        <v>analyzing</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L62" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>62bab2a750992ec78d476923</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Ileane Portinari</v>
+      </c>
+      <c r="C63" t="str">
+        <v>iportinari1p@over-blog.com</v>
+      </c>
+      <c r="D63" t="str">
+        <v>609-706-2387</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Mayer, Mertz and Shanahan</v>
+      </c>
+      <c r="F63" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G63" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H63" t="str">
+        <v>2</v>
+      </c>
+      <c r="I63" t="str">
+        <v>model</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L63" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>62bab2a750992ec78d476924</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Gratia Haibel</v>
+      </c>
+      <c r="C64" t="str">
+        <v>ghaibel1q@va.gov</v>
+      </c>
+      <c r="D64" t="str">
+        <v>768-712-4012</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Miller-Mante</v>
+      </c>
+      <c r="F64" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G64" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H64" t="str">
+        <v>8</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Proactive</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L64" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>62bab2a750992ec78d476925</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Margarita Gunther</v>
+      </c>
+      <c r="C65" t="str">
+        <v>mgunther1r@paypal.com</v>
+      </c>
+      <c r="D65" t="str">
+        <v>228-220-0204</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Kassulke Inc</v>
+      </c>
+      <c r="F65" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G65" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H65" t="str">
+        <v>2</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Automated</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L65" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>62bab2a750992ec78d476926</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Garry Maasze</v>
+      </c>
+      <c r="C66" t="str">
+        <v>gmaasze1s@army.mil</v>
+      </c>
+      <c r="D66" t="str">
+        <v>681-355-6146</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Mertz Group</v>
+      </c>
+      <c r="F66" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G66" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H66" t="str">
+        <v>5</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Fully-configurable</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L66" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>62bab2a750992ec78d476927</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Sherlock Fermer</v>
+      </c>
+      <c r="C67" t="str">
+        <v>sfermer1t@house.gov</v>
+      </c>
+      <c r="D67" t="str">
+        <v>593-928-4585</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Blick LLC</v>
+      </c>
+      <c r="F67" t="str">
+        <v>program</v>
+      </c>
+      <c r="G67" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H67" t="str">
+        <v>10</v>
+      </c>
+      <c r="I67" t="str">
+        <v>fault-tolerant</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L67" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>62bab2a750992ec78d476928</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Emalee Szimon</v>
+      </c>
+      <c r="C68" t="str">
+        <v>eszimon1u@webnode.com</v>
+      </c>
+      <c r="D68" t="str">
+        <v>671-383-5455</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Anderson, Braun and Bogisich</v>
+      </c>
+      <c r="F68" t="str">
+        <v>program</v>
+      </c>
+      <c r="G68" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H68" t="str">
+        <v>9</v>
+      </c>
+      <c r="I68" t="str">
+        <v>strategy</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L68" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>62bab2a750992ec78d476929</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Cozmo Scoullar</v>
+      </c>
+      <c r="C69" t="str">
+        <v>cscoullar1v@ezinearticles.com</v>
+      </c>
+      <c r="D69" t="str">
+        <v>836-883-0701</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Jacobs, Emard and Bosco</v>
+      </c>
+      <c r="F69" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G69" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H69" t="str">
+        <v>5</v>
+      </c>
+      <c r="I69" t="str">
+        <v>approach</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+      <c r="L69" t="str">
+        <v>2022-06-28T07:49:59.416Z</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>62bab2a750992ec78d47692a</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Katy Presidey</v>
+      </c>
+      <c r="C70" t="str">
+        <v>kpresidey1w@histats.com</v>
+      </c>
+      <c r="D70" t="str">
+        <v>498-184-6502</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Berge, Robel and Collins</v>
+      </c>
+      <c r="F70" t="str">
+        <v>program</v>
+      </c>
+      <c r="G70" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H70" t="str">
+        <v>5</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Multi-layered</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="str">
+        <v>2022-06-28T07:49:59.417Z</v>
+      </c>
+      <c r="L70" t="str">
+        <v>2022-06-28T07:49:59.417Z</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>62bab2a750992ec78d47692b</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Zandra Jurzyk</v>
+      </c>
+      <c r="C71" t="str">
+        <v>zjurzyk1x@theglobeandmail.com</v>
+      </c>
+      <c r="D71" t="str">
+        <v>599-373-8495</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Lubowitz, Schowalter and Christiansen</v>
+      </c>
+      <c r="F71" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G71" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H71" t="str">
+        <v>9</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Mandatory</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="str">
+        <v>2022-06-28T07:49:59.417Z</v>
+      </c>
+      <c r="L71" t="str">
+        <v>2022-06-28T07:49:59.417Z</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>62bab2a750992ec78d47692c</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Robenia Ashfold</v>
+      </c>
+      <c r="C72" t="str">
+        <v>rashfold1y@cpanel.net</v>
+      </c>
+      <c r="D72" t="str">
+        <v>859-988-1487</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Borer, Schroeder and Gottlieb</v>
+      </c>
+      <c r="F72" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G72" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H72" t="str">
+        <v>10</v>
+      </c>
+      <c r="I72" t="str">
+        <v>leverage</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="str">
+        <v>2022-06-28T07:49:59.417Z</v>
+      </c>
+      <c r="L72" t="str">
+        <v>2022-06-28T07:49:59.417Z</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>62bab2a750992ec78d47692d</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Hasheem Valero</v>
+      </c>
+      <c r="C73" t="str">
+        <v>hvalero1z@adobe.com</v>
+      </c>
+      <c r="D73" t="str">
+        <v>813-642-3918</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Langosh and Sons</v>
+      </c>
+      <c r="F73" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G73" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H73" t="str">
+        <v>7</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Cross-group</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="str">
+        <v>2022-06-28T07:49:59.417Z</v>
+      </c>
+      <c r="L73" t="str">
+        <v>2022-06-28T07:49:59.417Z</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>62bab2a750992ec78d47692e</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Franklin Rawes</v>
+      </c>
+      <c r="C74" t="str">
+        <v>frawes20@artisteer.com</v>
+      </c>
+      <c r="D74" t="str">
+        <v>887-210-9436</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Luettgen Group</v>
+      </c>
+      <c r="F74" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G74" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H74" t="str">
+        <v>3</v>
+      </c>
+      <c r="I74" t="str">
+        <v>complexity</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L74" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>62bab2a750992ec78d47692f</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Cindra Rableau</v>
+      </c>
+      <c r="C75" t="str">
+        <v>crableau21@51.la</v>
+      </c>
+      <c r="D75" t="str">
+        <v>504-849-8334</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Hintz Group</v>
+      </c>
+      <c r="F75" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G75" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H75" t="str">
+        <v>5</v>
+      </c>
+      <c r="I75" t="str">
+        <v>policy</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L75" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>62bab2a750992ec78d476930</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Andres Bathurst</v>
+      </c>
+      <c r="C76" t="str">
+        <v>abathurst22@mlb.com</v>
+      </c>
+      <c r="D76" t="str">
+        <v>887-732-4856</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Lynch-Leuschke</v>
+      </c>
+      <c r="F76" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G76" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H76" t="str">
+        <v>6</v>
+      </c>
+      <c r="I76" t="str">
+        <v>toolset</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L76" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>62bab2a750992ec78d476931</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Eloise Constable</v>
+      </c>
+      <c r="C77" t="str">
+        <v>econstable23@abc.net.au</v>
+      </c>
+      <c r="D77" t="str">
+        <v>420-148-4182</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Bogan-Konopelski</v>
+      </c>
+      <c r="F77" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G77" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H77" t="str">
+        <v>5</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Open-source</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L77" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>62bab2a750992ec78d476932</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Loise McLarnon</v>
+      </c>
+      <c r="C78" t="str">
+        <v>lmclarnon24@hao123.com</v>
+      </c>
+      <c r="D78" t="str">
+        <v>663-718-9855</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Powlowski-Ondricka</v>
+      </c>
+      <c r="F78" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G78" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H78" t="str">
+        <v>8</v>
+      </c>
+      <c r="I78" t="str">
+        <v>secondary</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L78" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>62bab2a750992ec78d476933</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Retha Riditch</v>
+      </c>
+      <c r="C79" t="str">
+        <v>rriditch25@va.gov</v>
+      </c>
+      <c r="D79" t="str">
+        <v>125-795-0512</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Padberg Inc</v>
+      </c>
+      <c r="F79" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G79" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H79" t="str">
+        <v>1</v>
+      </c>
+      <c r="I79" t="str">
+        <v>bifurcated</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L79" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>62bab2a750992ec78d476934</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Burty Orsman</v>
+      </c>
+      <c r="C80" t="str">
+        <v>borsman26@archive.org</v>
+      </c>
+      <c r="D80" t="str">
+        <v>994-790-6697</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Ritchie-Gutkowski</v>
+      </c>
+      <c r="F80" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G80" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H80" t="str">
+        <v>3</v>
+      </c>
+      <c r="I80" t="str">
+        <v>holistic</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L80" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>62bab2a750992ec78d476935</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Carma Borrows</v>
+      </c>
+      <c r="C81" t="str">
+        <v>cborrows27@marketwatch.com</v>
+      </c>
+      <c r="D81" t="str">
+        <v>908-193-8685</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Hammes, Bernier and Carter</v>
+      </c>
+      <c r="F81" t="str">
+        <v>program</v>
+      </c>
+      <c r="G81" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H81" t="str">
+        <v>4</v>
+      </c>
+      <c r="I81" t="str">
+        <v>analyzing</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L81" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>62bab2a750992ec78d476936</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Jo ann Shardlow</v>
+      </c>
+      <c r="C82" t="str">
+        <v>jann28@mozilla.com</v>
+      </c>
+      <c r="D82" t="str">
+        <v>792-197-5855</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Weissnat and Sons</v>
+      </c>
+      <c r="F82" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G82" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H82" t="str">
+        <v>2</v>
+      </c>
+      <c r="I82" t="str">
+        <v>clear-thinking</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L82" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>62bab2a750992ec78d476937</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Ermentrude Allport</v>
+      </c>
+      <c r="C83" t="str">
+        <v>eallport29@zdnet.com</v>
+      </c>
+      <c r="D83" t="str">
+        <v>456-858-8122</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Prosacco Inc</v>
+      </c>
+      <c r="F83" t="str">
+        <v>program</v>
+      </c>
+      <c r="G83" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H83" t="str">
+        <v>10</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Multi-tiered</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L83" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>62bab2a750992ec78d476938</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Celestina Kopf</v>
+      </c>
+      <c r="C84" t="str">
+        <v>ckopf2a@google.de</v>
+      </c>
+      <c r="D84" t="str">
+        <v>198-841-3177</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Grimes Inc</v>
+      </c>
+      <c r="F84" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G84" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H84" t="str">
+        <v>6</v>
+      </c>
+      <c r="I84" t="str">
+        <v>framework</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+      <c r="L84" t="str">
+        <v>2022-06-28T07:49:59.418Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>62bab2a750992ec78d476939</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Raimondo MacTeague</v>
+      </c>
+      <c r="C85" t="str">
+        <v>rmacteague2b@biglobe.ne.jp</v>
+      </c>
+      <c r="D85" t="str">
+        <v>112-960-8810</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Botsford-Mertz</v>
+      </c>
+      <c r="F85" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G85" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H85" t="str">
+        <v>3</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Synergistic</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="str">
+        <v>2022-06-28T07:49:59.419Z</v>
+      </c>
+      <c r="L85" t="str">
+        <v>2022-06-28T07:49:59.419Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>62bab2a750992ec78d47693a</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Christan Cosins</v>
+      </c>
+      <c r="C86" t="str">
+        <v>ccosins2c@simplemachines.org</v>
+      </c>
+      <c r="D86" t="str">
+        <v>216-742-7539</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Connelly and Sons</v>
+      </c>
+      <c r="F86" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G86" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H86" t="str">
+        <v>8</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Right-sized</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="str">
+        <v>2022-06-28T07:49:59.419Z</v>
+      </c>
+      <c r="L86" t="str">
+        <v>2022-06-28T07:49:59.419Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>62bab2a750992ec78d47693b</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Esme Baylay</v>
+      </c>
+      <c r="C87" t="str">
+        <v>ebaylay2d@sbwire.com</v>
+      </c>
+      <c r="D87" t="str">
+        <v>743-611-7362</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Romaguera Inc</v>
+      </c>
+      <c r="F87" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G87" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H87" t="str">
+        <v>8</v>
+      </c>
+      <c r="I87" t="str">
+        <v>empowering</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="str">
+        <v>2022-06-28T07:49:59.419Z</v>
+      </c>
+      <c r="L87" t="str">
+        <v>2022-06-28T07:49:59.419Z</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>62bab2a750992ec78d47693c</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Meade Rampling</v>
+      </c>
+      <c r="C88" t="str">
+        <v>mrampling2e@washingtonpost.com</v>
+      </c>
+      <c r="D88" t="str">
+        <v>624-426-9021</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Hauck Group</v>
+      </c>
+      <c r="F88" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G88" t="str">
+        <v>ssm</v>
+      </c>
+      <c r="H88" t="str">
+        <v>5</v>
+      </c>
+      <c r="I88" t="str">
+        <v>ability</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="str">
+        <v>2022-06-28T07:49:59.419Z</v>
+      </c>
+      <c r="L88" t="str">
+        <v>2022-06-28T07:49:59.419Z</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>62bab2a750992ec78d47693d</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Axe Jerrems</v>
+      </c>
+      <c r="C89" t="str">
+        <v>ajerrems2f@tripadvisor.com</v>
+      </c>
+      <c r="D89" t="str">
+        <v>898-469-3567</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Windler Inc</v>
+      </c>
+      <c r="F89" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G89" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H89" t="str">
+        <v>8</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Cross-group</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="str">
+        <v>2022-06-28T07:49:59.419Z</v>
+      </c>
+      <c r="L89" t="str">
+        <v>2022-06-28T07:49:59.419Z</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>62bab2a750992ec78d47693e</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Latisha Crutchley</v>
+      </c>
+      <c r="C90" t="str">
+        <v>lcrutchley2g@slideshare.net</v>
+      </c>
+      <c r="D90" t="str">
+        <v>494-494-5762</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Dach, Schinner and Stoltenberg</v>
+      </c>
+      <c r="F90" t="str">
+        <v>rapot</v>
+      </c>
+      <c r="G90" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H90" t="str">
+        <v>4</v>
+      </c>
+      <c r="I90" t="str">
+        <v>foreground</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="str">
+        <v>2022-06-28T07:49:59.421Z</v>
+      </c>
+      <c r="L90" t="str">
+        <v>2022-06-28T07:49:59.421Z</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>62bab2a750992ec78d47693f</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Amber Greensmith</v>
+      </c>
+      <c r="C91" t="str">
+        <v>agreensmith2h@lycos.com</v>
+      </c>
+      <c r="D91" t="str">
+        <v>651-577-7561</v>
+      </c>
+      <c r="E91" t="str">
+        <v>VonRueden Group</v>
+      </c>
+      <c r="F91" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G91" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H91" t="str">
+        <v>5</v>
+      </c>
+      <c r="I91" t="str">
+        <v>background</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="str">
+        <v>2022-06-28T07:49:59.421Z</v>
+      </c>
+      <c r="L91" t="str">
+        <v>2022-06-28T07:49:59.421Z</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>62bab2a750992ec78d476940</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Tracie Monckman</v>
+      </c>
+      <c r="C92" t="str">
+        <v>tmonckman2i@gmpg.org</v>
+      </c>
+      <c r="D92" t="str">
+        <v>453-433-9547</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Osinski Inc</v>
+      </c>
+      <c r="F92" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G92" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H92" t="str">
+        <v>10</v>
+      </c>
+      <c r="I92" t="str">
+        <v>time-frame</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="str">
+        <v>2022-06-28T07:49:59.422Z</v>
+      </c>
+      <c r="L92" t="str">
+        <v>2022-06-28T07:49:59.422Z</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>62bab2a750992ec78d476941</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Trumaine Riping</v>
+      </c>
+      <c r="C93" t="str">
+        <v>triping2j@google.de</v>
+      </c>
+      <c r="D93" t="str">
+        <v>664-949-5619</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Oberbrunner, Weimann and Will</v>
+      </c>
+      <c r="F93" t="str">
+        <v>program</v>
+      </c>
+      <c r="G93" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H93" t="str">
+        <v>6</v>
+      </c>
+      <c r="I93" t="str">
+        <v>incremental</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="str">
+        <v>2022-06-28T07:49:59.422Z</v>
+      </c>
+      <c r="L93" t="str">
+        <v>2022-06-28T07:49:59.422Z</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>62bab2a750992ec78d476942</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Shepard Wooderson</v>
+      </c>
+      <c r="C94" t="str">
+        <v>swooderson2k@amazonaws.com</v>
+      </c>
+      <c r="D94" t="str">
+        <v>803-232-9820</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Cronin-Leuschke</v>
+      </c>
+      <c r="F94" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G94" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H94" t="str">
+        <v>1</v>
+      </c>
+      <c r="I94" t="str">
+        <v>conglomeration</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="str">
+        <v>2022-06-28T07:49:59.422Z</v>
+      </c>
+      <c r="L94" t="str">
+        <v>2022-06-28T07:49:59.422Z</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>62bab2a750992ec78d476943</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Calvin Turford</v>
+      </c>
+      <c r="C95" t="str">
+        <v>cturford2l@fc2.com</v>
+      </c>
+      <c r="D95" t="str">
+        <v>890-712-3484</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Kozey-Terry</v>
+      </c>
+      <c r="F95" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G95" t="str">
+        <v>subsidism</v>
+      </c>
+      <c r="H95" t="str">
+        <v>4</v>
+      </c>
+      <c r="I95" t="str">
+        <v>didactic</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="str">
+        <v>2022-06-28T07:49:59.422Z</v>
+      </c>
+      <c r="L95" t="str">
+        <v>2022-06-28T07:49:59.422Z</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>62bab2a750992ec78d476944</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Giana Pentony</v>
+      </c>
+      <c r="C96" t="str">
+        <v>gpentony2m@wisc.edu</v>
+      </c>
+      <c r="D96" t="str">
+        <v>640-344-9973</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Heathcote-Batz</v>
+      </c>
+      <c r="F96" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G96" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H96" t="str">
+        <v>7</v>
+      </c>
+      <c r="I96" t="str">
+        <v>web-enabled</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="str">
+        <v>2022-06-28T07:49:59.423Z</v>
+      </c>
+      <c r="L96" t="str">
+        <v>2022-06-28T07:49:59.423Z</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>62bab2a750992ec78d476945</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Jo ann Rummings</v>
+      </c>
+      <c r="C97" t="str">
+        <v>jann2n@cdc.gov</v>
+      </c>
+      <c r="D97" t="str">
+        <v>473-555-1525</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Nicolas, Daniel and Johnson</v>
+      </c>
+      <c r="F97" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G97" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H97" t="str">
+        <v>8</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Horizontal</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="str">
+        <v>2022-06-28T07:49:59.423Z</v>
+      </c>
+      <c r="L97" t="str">
+        <v>2022-06-28T07:49:59.423Z</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>62bab2a750992ec78d476946</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Steffie Gainforth</v>
+      </c>
+      <c r="C98" t="str">
+        <v>sgainforth2o@nymag.com</v>
+      </c>
+      <c r="D98" t="str">
+        <v>882-249-6424</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Price-Johns</v>
+      </c>
+      <c r="F98" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="G98" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H98" t="str">
+        <v>2</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Automated</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="str">
+        <v>2022-06-28T07:49:59.423Z</v>
+      </c>
+      <c r="L98" t="str">
+        <v>2022-06-28T07:49:59.423Z</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>62bab2a750992ec78d476947</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Noby McNiff</v>
+      </c>
+      <c r="C99" t="str">
+        <v>nmcniff2p@adobe.com</v>
+      </c>
+      <c r="D99" t="str">
+        <v>105-522-8427</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Jacobs, Fadel and Schuppe</v>
+      </c>
+      <c r="F99" t="str">
+        <v>program</v>
+      </c>
+      <c r="G99" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H99" t="str">
+        <v>6</v>
+      </c>
+      <c r="I99" t="str">
+        <v>alliance</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="str">
+        <v>2022-06-28T07:49:59.423Z</v>
+      </c>
+      <c r="L99" t="str">
+        <v>2022-06-28T07:49:59.423Z</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>62bab2a750992ec78d476948</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Philomena Bondesen</v>
+      </c>
+      <c r="C100" t="str">
+        <v>pbondesen2q@nature.com</v>
+      </c>
+      <c r="D100" t="str">
+        <v>469-518-0495</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Lindgren-Schmidt</v>
+      </c>
+      <c r="F100" t="str">
+        <v>closing</v>
+      </c>
+      <c r="G100" t="str">
+        <v>subsididm</v>
+      </c>
+      <c r="H100" t="str">
+        <v>9</v>
+      </c>
+      <c r="I100" t="str">
+        <v>tangible</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="str">
+        <v>2022-06-28T07:49:59.423Z</v>
+      </c>
+      <c r="L100" t="str">
+        <v>2022-06-28T07:49:59.423Z</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>62bab2a750992ec78d476949</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Lorie Dallow</v>
+      </c>
+      <c r="C101" t="str">
+        <v>ldallow2r@slate.com</v>
+      </c>
+      <c r="D101" t="str">
+        <v>916-760-3473</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Daniel, Towne and Douglas</v>
+      </c>
+      <c r="F101" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G101" t="str">
+        <v>sdm</v>
+      </c>
+      <c r="H101" t="str">
+        <v>2</v>
+      </c>
+      <c r="I101" t="str">
+        <v>orchestration</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="str">
+        <v>2022-06-28T07:49:59.424Z</v>
+      </c>
+      <c r="L101" t="str">
+        <v>2022-06-28T07:49:59.424Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
   </ignoredErrors>
 </worksheet>
 </file>